--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1102"/>
+  <dimension ref="A1:I1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38962,6 +38962,41 @@
         <v>1070400</v>
       </c>
     </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>454500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1103"/>
+  <dimension ref="A1:I1104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38997,6 +38997,41 @@
         <v>454500</v>
       </c>
     </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>2491400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1104"/>
+  <dimension ref="A1:I1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39032,6 +39032,41 @@
         <v>2491400</v>
       </c>
     </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>3582100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1105"/>
+  <dimension ref="A1:I1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39067,6 +39067,41 @@
         <v>3582100</v>
       </c>
     </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>5050100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1106"/>
+  <dimension ref="A1:I1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39102,6 +39102,41 @@
         <v>5050100</v>
       </c>
     </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>1678700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1107"/>
+  <dimension ref="A1:I1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39137,6 +39137,41 @@
         <v>1678700</v>
       </c>
     </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>508200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1108"/>
+  <dimension ref="A1:I1109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39172,6 +39172,41 @@
         <v>508200</v>
       </c>
     </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>670000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1109"/>
+  <dimension ref="A1:I1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39207,6 +39207,41 @@
         <v>670000</v>
       </c>
     </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>3148200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1110"/>
+  <dimension ref="A1:I1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39242,6 +39242,41 @@
         <v>3148200</v>
       </c>
     </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>1886000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1111"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39277,6 +39277,41 @@
         <v>1886000</v>
       </c>
     </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>1546500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39312,6 +39312,41 @@
         <v>1546500</v>
       </c>
     </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>140500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39347,6 +39347,41 @@
         <v>140500</v>
       </c>
     </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>926000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1114"/>
+  <dimension ref="A1:I1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39382,6 +39382,76 @@
         <v>926000</v>
       </c>
     </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>882200</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>3994800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1116"/>
+  <dimension ref="A1:I1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39452,6 +39452,76 @@
         <v>3994800</v>
       </c>
     </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>2445800</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>520600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1118"/>
+  <dimension ref="A1:I1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39522,6 +39522,41 @@
         <v>520600</v>
       </c>
     </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>221000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1119"/>
+  <dimension ref="A1:I1120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39557,6 +39557,41 @@
         <v>221000</v>
       </c>
     </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>1071400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1120"/>
+  <dimension ref="A1:I1121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39592,6 +39592,41 @@
         <v>1071400</v>
       </c>
     </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>2914300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1121"/>
+  <dimension ref="A1:I1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39627,6 +39627,41 @@
         <v>2914300</v>
       </c>
     </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>7935900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1122"/>
+  <dimension ref="A1:I1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39662,6 +39662,76 @@
         <v>7935900</v>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>21825500</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>40317300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1124"/>
+  <dimension ref="A1:I1125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39732,6 +39732,41 @@
         <v>40317300</v>
       </c>
     </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>2438500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1125"/>
+  <dimension ref="A1:I1126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39767,6 +39767,41 @@
         <v>2438500</v>
       </c>
     </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>6514800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1126"/>
+  <dimension ref="A1:I1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37249,11 +37249,11 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -37267,28 +37267,28 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F1054" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G1054" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H1054" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="I1054" t="n">
-        <v>3112900</v>
+        <v>6806200</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -37302,28 +37302,28 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F1055" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1055" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G1055" t="n">
-        <v>0.08</v>
-      </c>
       <c r="H1055" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I1055" t="n">
-        <v>5278800</v>
+        <v>3071300</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -37337,28 +37337,28 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F1056" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G1056" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="H1056" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I1056" t="n">
-        <v>3354900</v>
+        <v>1357500</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -37372,28 +37372,28 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="F1057" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G1057" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H1057" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="I1057" t="n">
-        <v>3402800</v>
+        <v>4187100</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -37407,28 +37407,28 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="F1058" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G1058" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H1058" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1058" t="n">
-        <v>1851600</v>
+        <v>3629700</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -37442,28 +37442,28 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1059" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1059" t="n">
         <v>0.08</v>
       </c>
-      <c r="G1059" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="H1059" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1059" t="n">
-        <v>1142200</v>
+        <v>9960600</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -37477,28 +37477,28 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1060" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G1060" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H1060" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I1060" t="n">
-        <v>6179600</v>
+        <v>7463600</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -37512,28 +37512,28 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F1061" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1061" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G1061" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H1061" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1061" t="n">
-        <v>1588600</v>
+        <v>2291100</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -37547,28 +37547,28 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="F1062" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1062" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G1062" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="H1062" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I1062" t="n">
-        <v>753200</v>
+        <v>2106500</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -37582,28 +37582,28 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1063" t="n">
         <v>0.08500000000000001</v>
       </c>
       <c r="G1063" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H1063" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1063" t="n">
-        <v>1240000</v>
+        <v>3112900</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -37629,16 +37629,16 @@
         <v>0.08</v>
       </c>
       <c r="I1064" t="n">
-        <v>1922000</v>
+        <v>5278800</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -37652,28 +37652,28 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F1065" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G1065" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1065" t="n">
         <v>0.08</v>
       </c>
-      <c r="H1065" t="n">
-        <v>0.08500000000000001</v>
-      </c>
       <c r="I1065" t="n">
-        <v>580700</v>
+        <v>3354900</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -37687,28 +37687,28 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F1066" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G1066" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1066" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1066" t="n">
-        <v>885100</v>
+        <v>3402800</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -37722,28 +37722,28 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1067" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G1067" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H1067" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1067" t="n">
-        <v>2977300</v>
+        <v>1851600</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -37757,28 +37757,28 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1068" t="n">
         <v>0.08</v>
       </c>
       <c r="G1068" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1068" t="n">
         <v>0.075</v>
       </c>
-      <c r="H1068" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I1068" t="n">
-        <v>1481100</v>
+        <v>1142200</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -37795,25 +37795,25 @@
         <v>0.075</v>
       </c>
       <c r="F1069" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1069" t="n">
         <v>0.075</v>
       </c>
       <c r="H1069" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1069" t="n">
-        <v>264300</v>
+        <v>6179600</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -37830,25 +37830,25 @@
         <v>0.08</v>
       </c>
       <c r="F1070" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1070" t="n">
         <v>0.075</v>
       </c>
       <c r="H1070" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1070" t="n">
-        <v>942500</v>
+        <v>1588600</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -37862,28 +37862,28 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1071" t="n">
         <v>0.075</v>
       </c>
       <c r="H1071" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1071" t="n">
-        <v>358000</v>
+        <v>753200</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -37897,28 +37897,28 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1072" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1072" t="n">
         <v>0.075</v>
       </c>
       <c r="H1072" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1072" t="n">
-        <v>292200</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -37932,28 +37932,28 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1073" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1073" t="n">
         <v>0.08</v>
-      </c>
-      <c r="G1073" t="n">
-        <v>0.075</v>
       </c>
       <c r="H1073" t="n">
         <v>0.08</v>
       </c>
       <c r="I1073" t="n">
-        <v>102000</v>
+        <v>1922000</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -37967,28 +37967,28 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1074" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1074" t="n">
         <v>0.08</v>
       </c>
-      <c r="G1074" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H1074" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1074" t="n">
-        <v>773500</v>
+        <v>580700</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -38002,28 +38002,28 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1075" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1075" t="n">
         <v>0.08</v>
       </c>
-      <c r="G1075" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H1075" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1075" t="n">
-        <v>72600</v>
+        <v>885100</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -38037,28 +38037,28 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1076" t="n">
         <v>0.08500000000000001</v>
       </c>
       <c r="G1076" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H1076" t="n">
         <v>0.08</v>
       </c>
       <c r="I1076" t="n">
-        <v>5585200</v>
+        <v>2977300</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -38075,25 +38075,25 @@
         <v>0.08</v>
       </c>
       <c r="F1077" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G1077" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H1077" t="n">
         <v>0.08</v>
       </c>
       <c r="I1077" t="n">
-        <v>1869500</v>
+        <v>1481100</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="E1078" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1078" t="n">
         <v>0.08</v>
@@ -38119,16 +38119,16 @@
         <v>0.075</v>
       </c>
       <c r="I1078" t="n">
-        <v>2665300</v>
+        <v>264300</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -38145,25 +38145,25 @@
         <v>0.08</v>
       </c>
       <c r="F1079" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G1079" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H1079" t="n">
         <v>0.08</v>
       </c>
       <c r="I1079" t="n">
-        <v>1076500</v>
+        <v>942500</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -38189,16 +38189,16 @@
         <v>0.075</v>
       </c>
       <c r="I1080" t="n">
-        <v>860300</v>
+        <v>358000</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -38212,7 +38212,7 @@
         </is>
       </c>
       <c r="E1081" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1081" t="n">
         <v>0.08</v>
@@ -38224,16 +38224,16 @@
         <v>0.075</v>
       </c>
       <c r="I1081" t="n">
-        <v>616000</v>
+        <v>292200</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -38259,16 +38259,16 @@
         <v>0.08</v>
       </c>
       <c r="I1082" t="n">
-        <v>716100</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -38282,7 +38282,7 @@
         </is>
       </c>
       <c r="E1083" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1083" t="n">
         <v>0.08</v>
@@ -38294,16 +38294,16 @@
         <v>0.075</v>
       </c>
       <c r="I1083" t="n">
-        <v>910700</v>
+        <v>773500</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -38329,16 +38329,16 @@
         <v>0.075</v>
       </c>
       <c r="I1084" t="n">
-        <v>532300</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -38355,25 +38355,25 @@
         <v>0.075</v>
       </c>
       <c r="F1085" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1085" t="n">
         <v>0.075</v>
       </c>
       <c r="H1085" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1085" t="n">
-        <v>713600</v>
+        <v>5585200</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -38387,28 +38387,28 @@
         </is>
       </c>
       <c r="E1086" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1086" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1086" t="n">
         <v>0.08</v>
-      </c>
-      <c r="G1086" t="n">
-        <v>0.075</v>
       </c>
       <c r="H1086" t="n">
         <v>0.08</v>
       </c>
       <c r="I1086" t="n">
-        <v>566400</v>
+        <v>1869500</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -38422,7 +38422,7 @@
         </is>
       </c>
       <c r="E1087" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1087" t="n">
         <v>0.08</v>
@@ -38434,16 +38434,16 @@
         <v>0.075</v>
       </c>
       <c r="I1087" t="n">
-        <v>367500</v>
+        <v>2665300</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -38457,28 +38457,28 @@
         </is>
       </c>
       <c r="E1088" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1088" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1088" t="n">
         <v>0.08</v>
       </c>
-      <c r="G1088" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H1088" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1088" t="n">
-        <v>693700</v>
+        <v>1076500</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -38492,10 +38492,10 @@
         </is>
       </c>
       <c r="E1089" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1089" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G1089" t="n">
         <v>0.075</v>
@@ -38504,16 +38504,16 @@
         <v>0.075</v>
       </c>
       <c r="I1089" t="n">
-        <v>128300</v>
+        <v>860300</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -38527,7 +38527,7 @@
         </is>
       </c>
       <c r="E1090" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1090" t="n">
         <v>0.08</v>
@@ -38539,16 +38539,16 @@
         <v>0.075</v>
       </c>
       <c r="I1090" t="n">
-        <v>128100</v>
+        <v>616000</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -38565,25 +38565,25 @@
         <v>0.075</v>
       </c>
       <c r="F1091" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G1091" t="n">
         <v>0.075</v>
       </c>
       <c r="H1091" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1091" t="n">
-        <v>414700</v>
+        <v>716100</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -38603,22 +38603,22 @@
         <v>0.08</v>
       </c>
       <c r="G1092" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H1092" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1092" t="n">
-        <v>571000</v>
+        <v>910700</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -38632,7 +38632,7 @@
         </is>
       </c>
       <c r="E1093" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1093" t="n">
         <v>0.08</v>
@@ -38644,16 +38644,16 @@
         <v>0.075</v>
       </c>
       <c r="I1093" t="n">
-        <v>3102900</v>
+        <v>532300</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -38679,16 +38679,16 @@
         <v>0.075</v>
       </c>
       <c r="I1094" t="n">
-        <v>325200</v>
+        <v>713600</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -38711,19 +38711,19 @@
         <v>0.075</v>
       </c>
       <c r="H1095" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1095" t="n">
-        <v>107600</v>
+        <v>566400</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -38749,16 +38749,16 @@
         <v>0.075</v>
       </c>
       <c r="I1096" t="n">
-        <v>632000</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -38775,25 +38775,25 @@
         <v>0.075</v>
       </c>
       <c r="F1097" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1097" t="n">
         <v>0.075</v>
       </c>
-      <c r="G1097" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="H1097" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1097" t="n">
-        <v>1930400</v>
+        <v>693700</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -38807,28 +38807,28 @@
         </is>
       </c>
       <c r="E1098" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F1098" t="n">
         <v>0.075</v>
       </c>
       <c r="G1098" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H1098" t="n">
         <v>0.075</v>
       </c>
       <c r="I1098" t="n">
-        <v>1352600</v>
+        <v>128300</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -38845,25 +38845,25 @@
         <v>0.075</v>
       </c>
       <c r="F1099" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1099" t="n">
         <v>0.075</v>
-      </c>
-      <c r="G1099" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="H1099" t="n">
         <v>0.075</v>
       </c>
       <c r="I1099" t="n">
-        <v>838600</v>
+        <v>128100</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -38877,28 +38877,28 @@
         </is>
       </c>
       <c r="E1100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F1100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G1100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H1100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1100" t="n">
-        <v>240600</v>
+        <v>414700</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -38912,28 +38912,28 @@
         </is>
       </c>
       <c r="E1101" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F1101" t="n">
         <v>0.08</v>
       </c>
       <c r="G1101" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H1101" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1101" t="n">
-        <v>3874600</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -38947,10 +38947,10 @@
         </is>
       </c>
       <c r="E1102" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F1102" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G1102" t="n">
         <v>0.075</v>
@@ -38959,16 +38959,16 @@
         <v>0.075</v>
       </c>
       <c r="I1102" t="n">
-        <v>1070400</v>
+        <v>3102900</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -38994,16 +38994,16 @@
         <v>0.075</v>
       </c>
       <c r="I1103" t="n">
-        <v>454500</v>
+        <v>325200</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -39026,19 +39026,19 @@
         <v>0.075</v>
       </c>
       <c r="H1104" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1104" t="n">
-        <v>2491400</v>
+        <v>107600</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -39052,28 +39052,28 @@
         </is>
       </c>
       <c r="E1105" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1105" t="n">
         <v>0.08</v>
-      </c>
-      <c r="F1105" t="n">
-        <v>0.08500000000000001</v>
       </c>
       <c r="G1105" t="n">
         <v>0.075</v>
       </c>
       <c r="H1105" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1105" t="n">
-        <v>3582100</v>
+        <v>632000</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -39087,28 +39087,28 @@
         </is>
       </c>
       <c r="E1106" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F1106" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G1106" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1106" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I1106" t="n">
-        <v>5050100</v>
+        <v>1930400</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -39122,28 +39122,28 @@
         </is>
       </c>
       <c r="E1107" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F1107" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G1107" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1107" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1107" t="n">
-        <v>1678700</v>
+        <v>1352600</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -39157,28 +39157,28 @@
         </is>
       </c>
       <c r="E1108" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1108" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G1108" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1108" t="n">
         <v>0.075</v>
       </c>
-      <c r="H1108" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I1108" t="n">
-        <v>508200</v>
+        <v>838600</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -39192,28 +39192,28 @@
         </is>
       </c>
       <c r="E1109" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F1109" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G1109" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1109" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I1109" t="n">
-        <v>670000</v>
+        <v>240600</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -39227,28 +39227,28 @@
         </is>
       </c>
       <c r="E1110" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1110" t="n">
         <v>0.08</v>
       </c>
-      <c r="F1110" t="n">
-        <v>0.08500000000000001</v>
-      </c>
       <c r="G1110" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1110" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1110" t="n">
-        <v>3148200</v>
+        <v>3874600</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -39262,28 +39262,28 @@
         </is>
       </c>
       <c r="E1111" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F1111" t="n">
         <v>0.08500000000000001</v>
       </c>
       <c r="G1111" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H1111" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I1111" t="n">
-        <v>1886000</v>
+        <v>1070400</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -39297,7 +39297,7 @@
         </is>
       </c>
       <c r="E1112" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1112" t="n">
         <v>0.08</v>
@@ -39306,19 +39306,19 @@
         <v>0.075</v>
       </c>
       <c r="H1112" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I1112" t="n">
-        <v>1546500</v>
+        <v>454500</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -39332,7 +39332,7 @@
         </is>
       </c>
       <c r="E1113" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F1113" t="n">
         <v>0.08</v>
@@ -39341,19 +39341,19 @@
         <v>0.075</v>
       </c>
       <c r="H1113" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I1113" t="n">
-        <v>140500</v>
+        <v>2491400</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -39370,25 +39370,25 @@
         <v>0.08</v>
       </c>
       <c r="F1114" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1114" t="n">
         <v>0.075</v>
       </c>
       <c r="H1114" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1114" t="n">
-        <v>926000</v>
+        <v>3582100</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -39402,28 +39402,28 @@
         </is>
       </c>
       <c r="E1115" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1115" t="n">
         <v>0.08</v>
       </c>
-      <c r="F1115" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G1115" t="n">
-        <v>0.075</v>
-      </c>
       <c r="H1115" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1115" t="n">
-        <v>882200</v>
+        <v>5050100</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -39437,28 +39437,28 @@
         </is>
       </c>
       <c r="E1116" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1116" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1116" t="n">
         <v>0.08</v>
       </c>
-      <c r="G1116" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="H1116" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1116" t="n">
-        <v>3994800</v>
+        <v>1678700</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -39472,28 +39472,28 @@
         </is>
       </c>
       <c r="E1117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F1117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G1117" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="H1117" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I1117" t="n">
-        <v>2445800</v>
+        <v>508200</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -39507,28 +39507,28 @@
         </is>
       </c>
       <c r="E1118" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F1118" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G1118" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="H1118" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I1118" t="n">
-        <v>520600</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -39542,28 +39542,28 @@
         </is>
       </c>
       <c r="E1119" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="F1119" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1119" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H1119" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1119" t="n">
-        <v>221000</v>
+        <v>3148200</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -39577,28 +39577,28 @@
         </is>
       </c>
       <c r="E1120" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G1120" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="H1120" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I1120" t="n">
-        <v>1071400</v>
+        <v>1886000</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -39612,28 +39612,28 @@
         </is>
       </c>
       <c r="E1121" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="F1121" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G1121" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="H1121" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I1121" t="n">
-        <v>2914300</v>
+        <v>1546500</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -39647,28 +39647,28 @@
         </is>
       </c>
       <c r="E1122" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F1122" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G1122" t="n">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="H1122" t="n">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="I1122" t="n">
-        <v>7935900</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -39682,28 +39682,28 @@
         </is>
       </c>
       <c r="E1123" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F1123" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G1123" t="n">
-        <v>0.02</v>
+        <v>0.075</v>
       </c>
       <c r="H1123" t="n">
-        <v>0.02</v>
+        <v>0.075</v>
       </c>
       <c r="I1123" t="n">
-        <v>21825500</v>
+        <v>926000</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -39717,28 +39717,28 @@
         </is>
       </c>
       <c r="E1124" t="n">
-        <v>0.015</v>
+        <v>0.08</v>
       </c>
       <c r="F1124" t="n">
-        <v>0.025</v>
+        <v>0.08</v>
       </c>
       <c r="G1124" t="n">
-        <v>0.015</v>
+        <v>0.075</v>
       </c>
       <c r="H1124" t="n">
-        <v>0.02</v>
+        <v>0.075</v>
       </c>
       <c r="I1124" t="n">
-        <v>40317300</v>
+        <v>882200</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -39752,53 +39752,368 @@
         </is>
       </c>
       <c r="E1125" t="n">
-        <v>0.02</v>
+        <v>0.075</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.025</v>
+        <v>0.08</v>
       </c>
       <c r="G1125" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H1125" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I1125" t="n">
-        <v>2438500</v>
+        <v>3994800</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>2445800</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>520600</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1128" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1129" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>1071400</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1130" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>2914300</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>7935900</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1132" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>21825500</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>40317300</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1134" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>2438500</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1126" t="inlineStr">
+      <c r="B1135" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1126" t="inlineStr">
-        <is>
-          <t>5268</t>
-        </is>
-      </c>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>IKHMAS</t>
-        </is>
-      </c>
-      <c r="E1126" t="n">
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
         <v>0.025</v>
       </c>
-      <c r="F1126" t="n">
+      <c r="F1135" t="n">
         <v>0.025</v>
       </c>
-      <c r="G1126" t="n">
+      <c r="G1135" t="n">
         <v>0.015</v>
       </c>
-      <c r="H1126" t="n">
+      <c r="H1135" t="n">
         <v>0.025</v>
       </c>
-      <c r="I1126" t="n">
+      <c r="I1135" t="n">
         <v>6514800</v>
       </c>
     </row>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1135"/>
+  <dimension ref="A1:I1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40117,6 +40117,41 @@
         <v>6514800</v>
       </c>
     </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>10629400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1136"/>
+  <dimension ref="A1:I1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40152,6 +40152,41 @@
         <v>10629400</v>
       </c>
     </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>3852900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1137"/>
+  <dimension ref="A1:I1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40187,6 +40187,41 @@
         <v>3852900</v>
       </c>
     </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>2836300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1138"/>
+  <dimension ref="A1:I1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40222,6 +40222,41 @@
         <v>2836300</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>8347800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1139"/>
+  <dimension ref="A1:I1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40257,6 +40257,41 @@
         <v>8347800</v>
       </c>
     </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>1153800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1140"/>
+  <dimension ref="A1:I1141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40292,6 +40292,41 @@
         <v>1153800</v>
       </c>
     </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>158900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1141"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40327,6 +40327,41 @@
         <v>158900</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>2328900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40362,6 +40362,41 @@
         <v>2328900</v>
       </c>
     </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>2545200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1143"/>
+  <dimension ref="A1:I1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40397,6 +40397,41 @@
         <v>2545200</v>
       </c>
     </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>5238300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1144"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40432,6 +40432,41 @@
         <v>5238300</v>
       </c>
     </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>5299800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1145"/>
+  <dimension ref="A1:I1146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40467,6 +40467,41 @@
         <v>5299800</v>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1672300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1146"/>
+  <dimension ref="A1:I1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40502,6 +40502,41 @@
         <v>1672300</v>
       </c>
     </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>564500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1147"/>
+  <dimension ref="A1:I1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40537,6 +40537,41 @@
         <v>564500</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>9277900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1148"/>
+  <dimension ref="A1:I1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40572,6 +40572,41 @@
         <v>9277900</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1282400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1149"/>
+  <dimension ref="A1:I1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40607,6 +40607,41 @@
         <v>1282400</v>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>447600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1150"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40642,6 +40642,41 @@
         <v>447600</v>
       </c>
     </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>17372800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40677,6 +40677,41 @@
         <v>17372800</v>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>45301300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1152"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40712,6 +40712,41 @@
         <v>45301300</v>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>26007100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1153"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40747,6 +40747,41 @@
         <v>26007100</v>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>5320700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40782,6 +40782,41 @@
         <v>5320700</v>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>7160800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1155"/>
+  <dimension ref="A1:I1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40817,6 +40817,41 @@
         <v>7160800</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>3074800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1156"/>
+  <dimension ref="A1:I1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40852,6 +40852,41 @@
         <v>3074800</v>
       </c>
     </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>6266700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1157"/>
+  <dimension ref="A1:I1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40887,6 +40887,41 @@
         <v>6266700</v>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>12025100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1158"/>
+  <dimension ref="A1:I1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40922,6 +40922,41 @@
         <v>12025100</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1549700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1159"/>
+  <dimension ref="A1:I1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40957,6 +40957,41 @@
         <v>1549700</v>
       </c>
     </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>4577300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1160"/>
+  <dimension ref="A1:I1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40992,6 +40992,76 @@
         <v>4577300</v>
       </c>
     </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>6820300</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1625500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1162"/>
+  <dimension ref="A1:I1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41062,6 +41062,41 @@
         <v>1625500</v>
       </c>
     </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>2580200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1163"/>
+  <dimension ref="A1:I1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41097,6 +41097,111 @@
         <v>2580200</v>
       </c>
     </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>475900</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>13706400</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>3426200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1166"/>
+  <dimension ref="A1:I1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41202,6 +41202,41 @@
         <v>3426200</v>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1160700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1167"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41237,6 +41237,41 @@
         <v>1160700</v>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>6376900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5268.xlsx
+++ b/data/5268.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41272,6 +41272,111 @@
         <v>6376900</v>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>2812500</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>376700</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>5268</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>IKHMAS</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>4387300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
